--- a/Test_Design/openGauss 6.0.0/标识符双引号内大小写不敏感V1.0.xlsx
+++ b/Test_Design/openGauss 6.0.0/标识符双引号内大小写不敏感V1.0.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$M$120</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="301">
   <si>
     <t>特性编号</t>
   </si>
@@ -413,10 +416,6 @@
   </si>
   <si>
     <t>Opengauss_Ignore_Case_In_Dquotes_Use_Case0026</t>
-  </si>
-  <si>
-    <t>1）手动执行对应用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1）与用例中写的预期结果一致</t>
@@ -888,16 +887,10 @@
     <t>2）数据库已启动</t>
   </si>
   <si>
-    <t>2）手动执行对应用例</t>
-  </si>
-  <si>
     <t>2）与用例中写的预期结果一致</t>
   </si>
   <si>
     <t>3）数据库已启动</t>
-  </si>
-  <si>
-    <t>3）手动执行对应用例</t>
   </si>
   <si>
     <t>3）与用例中写的预期结果一致</t>
@@ -946,6 +939,610 @@
 2）yat成功安装并且正确配置
 jdbc开启参数preferQueryMode=simple
 3）已完成测试套初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试更新外表，名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--创建服务器及外表;expect:成功(11 rows)
+create foreign data wrapper ignore_case_dbserver0018 options (debug 'true');
+create server ser_ignore_case_in_dquotes_alter_case0018 foreign data wrapper ignore_case_dbserver0018;
+grant usage on foreign server ser_ignore_case_in_dquotes_alter_case0018 to public;
+create foreign table ft_ignore_case_in_dquotes_alter_case0018_1("IGNORE_CASE_IN_DQUOTES_ALTER_col1" int,"IGNORE_CASE_IN_DQUOTES_ALTER_col2" varchar(10)) server ser_ignore_case_in_dquotes_alter_case0018;
+create foreign table ft_ignore_case_in_dquotes_alter_case0018_2("IGNORE_CASE_IN_DQUOTES_ALTER_col1" int,"IGNORE_CASE_IN_DQUOTES_ALTER_col2" varchar(10)) server ser_ignore_case_in_dquotes_alter_case0018;
+create foreign table ft_ignore_case_in_dquotes_alter_case0018_3("IGNORE_CASE_IN_DQUOTES_ALTER_col1" int,"IGNORE_CASE_IN_DQUOTES_ALTER_col2" varchar(10)) server ser_ignore_case_in_dquotes_alter_case0018;
+create foreign table "ft_ignore_case_in_dquotes_alter_case0018_!@#$%^&amp;*()?&lt;&gt;:;=+-_4"("IGNORE_CASE_IN_DQUOTES_ALTER_col1" int,"IGNORE_CASE_IN_DQUOTES_ALTER_col2" varchar(10)) server ser_ignore_case_in_dquotes_alter_case0018;
+create foreign table "ft_ignore_case_in_dquotes_alter_case0018_'''_5"("IGNORE_CASE_IN_DQUOTES_ALTER_col1" int,"IGNORE_CASE_IN_DQUOTES_ALTER_col2" varchar(10)) server ser_ignore_case_in_dquotes_alter_case0018;
+create foreign table "ft_ignore_case_in_dquotes_alter_case0018_""""""_6"("IGNORE_CASE_IN_DQUOTES_ALTER_col1" int,"IGNORE_CASE_IN_DQUOTES_ALTER_col2" varchar(10)) server ser_ignore_case_in_dquotes_alter_case0018;
+create foreign table "ft_ignore_case_in_dquotes_alter_case0018_''""_7"("IGNORE_CASE_IN_DQUOTES_ALTER_col1" int,"IGNORE_CASE_IN_DQUOTES_ALTER_col2" varchar(10)) server ser_ignore_case_in_dquotes_alter_case0018;
+create foreign table ft_ignore_case_in_dquotes_alter_case0018_8("IGNORE_CASE_IN_DQUOTES_ALTER_col1" int,"IGNORE_CASE_IN_DQUOTES_ALTER_col2" varchar(10)) server ser_ignore_case_in_dquotes_alter_case0018;
+--step1:更新外表名为全小写;expect:成功
+alter foreign table "ft_ignore_case_in_dquotes_alter_case0018_1" rename to "ft_ignore_case_in_dquotes_alter_case0018_1_new"; 
+--step2:更新外表名为全大写;expect:成功
+alter foreign table "FT_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0018_2" rename to "FT_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0018_2_new"; 
+--step3:更新外表名为大小写混合;expect:成功
+alter foreign table "Ft_IgNOrE_CasE_IN_dquotes_alter_cASe0018_3" rename to "Ft_IgNOrE_CasE_IN_dquotes_alter_cASe0018_3_new"; 
+--step4:更新外表名带有特殊符号;expect:成功
+alter foreign table "ft_IGNORE_CASE_IN_dquotes_alter_CASE0018_!@#$%^&amp;*()?&lt;&gt;:;=+-_4" rename to "ft_IGNORE_CASE_IN_dquotes_alter_CASE0018_!@#$%^&amp;*()?&lt;&gt;:;=+-_4_new"; 
+--step5:更新外表名带有单引号;expect:成功
+alter foreign table "ft_IGNORE_CASE_IN_dquotes_alter_CASE0018_'''_5" rename to "ft_IGNORE_CASE_IN_dquotes_alter_CASE0018_'''_5_new"; 
+--step6:更新外表名带有双引号;expect:成功
+alter foreign table "ft_IGNORE_CASE_IN_dquotes_alter_CASE0018_""""""_6" rename to "ft_IGNORE_CASE_IN_dquotes_alter_CASE0018_""""""_6_new"; 
+--step7:更新外表名带有单引号、双引号混合;expect:成功
+alter foreign table "FT_IGNORE_CASE_IN_dquotes_alter_case0018_''""_7" rename to "FT_IGNORE_CASE_IN_dquotes_alter_case0018_''""_7_new"; 
+--step8:异常情况，更新已经存在的小写对象名的对象;expect:报错ERROR: already exists 
+alter foreign table "FT_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0018_8" rename to FT_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0018_8; 
+--清理环境:expect:成功(10 rows)
+drop foreign table ft_ignore_case_in_dquotes_alter_case0018_1_new;
+drop foreign table ft_ignore_case_in_dquotes_alter_case0018_2_new;
+drop foreign table ft_ignore_case_in_dquotes_alter_case0018_3_new;
+drop foreign table "ft_ignore_case_in_dquotes_alter_case0018_!@#$%^&amp;*()?&lt;&gt;:;=+-_4_n";
+drop foreign table "ft_ignore_case_in_dquotes_alter_case0018_'''_5_new";
+drop foreign table "ft_ignore_case_in_dquotes_alter_case0018_""""""_6_new";
+drop foreign table "ft_ignore_case_in_dquotes_alter_case0018_''""_7_new";
+drop foreign table ft_ignore_case_in_dquotes_alter_case0018_8;
+drop server ser_ignore_case_in_dquotes_alter_case0018;
+drop foreign data wrapper ignore_case_dbserver0018 cascade;
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试更新服务器，名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--创建服务器;expect:成功(9 rows)
+create foreign data wrapper ignore_case_dbserver0019 options (debug 'true');
+create server ser_ignore_case_in_dquotes_alter_case0019_1 foreign data wrapper ignore_case_dbserver0019;
+create server ser_ignore_case_in_dquotes_alter_case0019_2 foreign data wrapper ignore_case_dbserver0019;
+create server ser_ignore_case_in_dquotes_alter_case0019_3 foreign data wrapper ignore_case_dbserver0019;
+create server "ser_ignore_case_in_dquotes_alter_case0019_!@#$%^&amp;*()?&lt;&gt;:;=+-_4" foreign data wrapper ignore_case_dbserver0019;
+create server "ser_ignore_case_in_dquotes_alter_case0019_'''_5" foreign data wrapper ignore_case_dbserver0019;
+create server "ser_ignore_case_in_dquotes_alter_case0019_""""""_6" foreign data wrapper ignore_case_dbserver0019;
+create server "ser_ignore_case_in_dquotes_alter_case0019_''""_7" foreign data wrapper ignore_case_dbserver0019;
+create server ser_ignore_case_in_dquotes_alter_case0019_8 foreign data wrapper ignore_case_dbserver0019;
+--step1:更新服务器名为全小写;expect:成功
+alter server "ser_ignore_case_in_dquotes_alter_case0019_1" rename to "ser_ignore_case_in_dquotes_alter_case0019_1_new"; 
+--step2:更新服务器名为全大写;expect:成功
+alter server "SER_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0019_2" rename to "SER_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0019_2_new"; 
+--step3:更新服务器名为大小写混合;expect:成功
+alter server "Ser_IgNOrE_CasE_IN_dquotes_alter_cASe0019_3" rename to "Ser_IgNOrE_CasE_IN_dquotes_alter_cASe0019_3_new"; 
+--step4:更新服务器名带有特殊符号;expect:成功
+alter server "ser_IGNORE_CASE_IN_dquotes_alter_CASE0019_!@#$%^&amp;*()?&lt;&gt;:;=+-_4" rename to "ser_IGNORE_CASE_IN_dquotes_alter_CASE0019_!@#$%^&amp;*()?&lt;&gt;:;=+-_4_new"; 
+--step5:更新服务器名带有单引号;expect:成功
+alter server "ser_IGNORE_CASE_IN_dquotes_alter_CASE0019_'''_5" rename to "ser_IGNORE_CASE_IN_dquotes_alter_CASE0019_'''_5_new"; 
+--step6:更新服务器名带有双引号;expect:成功
+alter server "ser_IGNORE_CASE_IN_dquotes_alter_CASE0019_""""""_6" rename to "ser_IGNORE_CASE_IN_dquotes_alter_CASE0019_""""""_6_new"; 
+--step7:更新服务器名带有单引号、双引号混合;expect:成功
+alter server "SER_IGNORE_CASE_IN_dquotes_alter_case0019_''""_7" rename to "SER_IGNORE_CASE_IN_dquotes_alter_case0019_''""_7_new"; 
+--step8:异常情况，更新已经存在的小写对象名的对象;expect:报错ERROR: already exists
+alter server "SER_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0019_8" rename to SER_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0019_8; 
+--清理环境;expect:成功(9 row)
+drop server ser_ignore_case_in_dquotes_alter_case0019_1_new;
+drop server ser_ignore_case_in_dquotes_alter_case0019_2_new;
+drop server ser_ignore_case_in_dquotes_alter_case0019_3_new;
+drop server "ser_ignore_case_in_dquotes_alter_case0019_!@#$%^&amp;*()?&lt;&gt;:;=+-_4_";
+drop server "ser_ignore_case_in_dquotes_alter_case0019_'''_5_new";
+drop server "ser_ignore_case_in_dquotes_alter_case0019_""""""_6_new";
+drop server "ser_ignore_case_in_dquotes_alter_case0019_''""_7_new";
+drop server ser_ignore_case_in_dquotes_alter_case0019_8;
+drop foreign data wrapper ignore_case_dbserver0019 cascade;
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试更新外部数据包装器，外部数据包装器名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--创建外部数据包装器:expect:成功(8 row)
+create foreign data wrapper fdw_ignore_case_in_dquotes_alter_case0021_1;
+create foreign data wrapper fdw_ignore_case_in_dquotes_alter_case0021_2;
+create foreign data wrapper fdw_ignore_case_in_dquotes_alter_case0021_3;
+create foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_!@#$%^&amp;*()?&lt;&gt;:;=+-_4";
+create foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_'''_5";
+create foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_""""""_6";
+create foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_''""_7";
+create foreign data wrapper fdw_ignore_case_in_dquotes_alter_case0021_8;
+--step1:更新外部数据包装器名为全小写;expect:成功
+alter foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_1" rename to "fdw_ignore_case_in_dquotes_alter_case0021_1new"; 
+--step2:更新外部数据包装器名为全大写;expect:成功
+alter foreign data wrapper "FDW_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0021_2" rename to "FDW_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0021_2new";
+--step3:更新外部数据包装器名为大小写混合;expect:成功
+alter foreign data wrapper "fdw_IgNOrE_CasE_IN_dquotes_alter_cASe0021_3" rename to "fdw_IgNOrE_CasE_IN_dquotes_alter_cASe0021_3new";
+--step4:更新外部数据包装器名带有特殊符号;expect:成功
+alter foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_alter_CASE0021_!@#$%^&amp;*()?&lt;&gt;:;=+-_4" rename to "fdw_IGNORE_CASE_IN_dquotes_alter_CASE0021_!@#$%^&amp;*()?&lt;&gt;:;=+-_4new";
+--step5:更新外部数据包装器名带有单引号;expect:成功
+alter foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_alter_CASE0021_'''_5" rename to "fdw_IGNORE_CASE_IN_dquotes_alter_CASE0021_'''_5new";
+--step6:更新外部数据包装器名带有双引号;expect:成功
+alter foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_alter_CASE0021_""""""_6" rename to "fdw_IGNORE_CASE_IN_dquotes_alter_CASE0021_""""""_6new";
+--step7:更新外部数据包装器名带有单引号、双引号混合;expect:成功
+alter foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_alter_case0021_''""_7" rename to "fdw_IGNORE_CASE_IN_dquotes_alter_case0021_''""_7new";
+--step8:异常情况，更新已经存在的小写对象名的对象;expect:报错ERROR: already exists
+alter foreign data wrapper "FDW_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0021_8" rename to FDW_IGNORE_CASE_IN_DQUOTES_ALTER_CASE0021_8;
+--清理环境;expect:(8 rows)
+drop foreign data wrapper fdw_ignore_case_in_dquotes_alter_case0021_1new;
+drop foreign data wrapper fdw_ignore_case_in_dquotes_alter_case0021_2new;
+drop foreign data wrapper fdw_ignore_case_in_dquotes_alter_case0021_3new;
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_!@#$%^&amp;*()?&lt;&gt;:;=+-_4new";
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_'''_5new";
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_""""""_6new";
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_alter_case0021_''""_7new";
+drop foreign data wrapper fdw_ignore_case_in_dquotes_alter_case0021_8;
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试创建外表，名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--创建服务器;expect:成功
+create foreign data wrapper ignore_case_dbserver0018 options (debug 'true');
+create server ser_ignore_case_in_dquotes_create_case0018 foreign data wrapper ignore_case_dbserver0018;
+grant usage on foreign server ser_ignore_case_in_dquotes_create_case0018 to public;
+--step1:创建外表名为全小写;expect:成功
+create foreign table "ft_ignore_case_in_dquotes_create_case0018_1"("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+--step2:创建外表名为全大写;expect:成功
+create foreign table "FT_IGNORE_CASE_IN_DQUOTES_CREATE_CASE0018_2"("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+--step3:创建外表名为大小写混合;expect:成功
+create foreign table "Ft_IgNOrE_CasE_IN_dquotes_create_cASe0018_3"("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+--step4:创建外表名带有特殊符号;expect:成功
+create foreign table "ft_IGNORE_CASE_IN_dquotes_create_CASE0018_!@#$%^&amp;*()?&lt;&gt;:;=+-_4"("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+--step5:创建外表名带有单引号;expect:成功
+create foreign table "ft_IGNORE_CASE_IN_dquotes_create_CASE0018_'''_5"("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+--step6:创建外表名带有双引号;expect:成功
+create foreign table "ft_IGNORE_CASE_IN_dquotes_create_CASE0018_""""""_6"("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+--step7:创建外表名带有单引号、双引号混合;expect:成功
+create foreign table "FT_IGNORE_CASE_IN_dquotes_create_case0018_''""_7"("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+--step8:异常情况，创建已经存在的小写对象名的对象;expect:报错ERROR: already exists
+create foreign table ft_ignore_case_in_dquotes_create_case0018_8("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+create foreign table "FT_IGNORE_CASE_IN_DQUOTES_CREATE_CASE0018_8"("IGNORE_CASE_IN_DQUOTES_CREATE_col1" int,"IGNORE_CASE_IN_DQUOTES_CREATE_col2" varchar(10)) server ser_ignore_case_in_dquotes_create_case0018; 
+--step9:清理环境:expect:成功(8 row)
+drop foreign table ft_ignore_case_in_dquotes_create_case0018_1;
+drop foreign table ft_ignore_case_in_dquotes_create_case0018_2;
+drop foreign table ft_ignore_case_in_dquotes_create_case0018_3;
+drop foreign table "ft_ignore_case_in_dquotes_create_case0018_!@#$%^&amp;*()?&lt;&gt;:;=+-_4";
+drop foreign table "ft_ignore_case_in_dquotes_create_case0018_'''_5";
+drop foreign table "ft_ignore_case_in_dquotes_create_case0018_""""""_6";
+drop foreign table "ft_ignore_case_in_dquotes_create_case0018_''""_7";
+drop foreign table ft_ignore_case_in_dquotes_create_case0018_8;
+drop server ser_ignore_case_in_dquotes_create_case0018;
+drop foreign data wrapper ignore_case_dbserver0018 cascade;
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试创建服务器，名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--创建服务器;expect:成功
+create foreign data wrapper ignore_case_dbserver0019 options (debug 'true');
+--step1:创建服务器名为全小写;expect:成功
+create server "ser_ignore_case_in_dquotes_create_case0019_1" foreign data wrapper ignore_case_dbserver0019; 
+--step2:创建服务器名为全大写;expect:成功
+create server "SER_IGNORE_CASE_IN_DQUOTES_CREATE_CASE0019_2" foreign data wrapper ignore_case_dbserver0019; 
+--step3:创建服务器名为大小写混合;expect:成功
+create server "Ser_IgNOrE_CasE_IN_dquotes_create_cASe0019_3" foreign data wrapper ignore_case_dbserver0019; 
+--step4:创建服务器名带有特殊符号;expect:成功
+create server "ser_IGNORE_CASE_IN_dquotes_create_CASE0019_!@#$%^&amp;*()?&lt;&gt;:;=+-_4" foreign data wrapper ignore_case_dbserver0019; 
+--step5:创建服务器名带有单引号;expect:成功
+create server "ser_IGNORE_CASE_IN_dquotes_create_CASE0019_'''_5" foreign data wrapper ignore_case_dbserver0019; 
+--step6:创建服务器名带有双引号;expect:成功
+create server "ser_IGNORE_CASE_IN_dquotes_create_CASE0019_""""""_6" foreign data wrapper ignore_case_dbserver0019; 
+--step7:创建服务器名带有单引号、双引号混合;expect:成功
+create server "SER_IGNORE_CASE_IN_dquotes_create_case0019_''""_7" foreign data wrapper ignore_case_dbserver0019; 
+--step8:异常情况，创建已经存在的小写对象名的对象;expect:报错ERROR: already exists
+create server ser_ignore_case_in_dquotes_create_case0019_8 foreign data wrapper ignore_case_dbserver0019; 
+create server "SER_IGNORE_CASE_IN_DQUOTES_CREATE_CASE0019_8" foreign data wrapper ignore_case_dbserver0019; 
+--step9:清理环境:expect:成功(8 row)
+drop server ser_ignore_case_in_dquotes_create_case0019_1;
+drop server ser_ignore_case_in_dquotes_create_case0019_2;
+drop server ser_ignore_case_in_dquotes_create_case0019_3;
+drop server "ser_ignore_case_in_dquotes_create_case0019_!@#$%^&amp;*()?&lt;&gt;:;=+-_4";
+drop server "ser_ignore_case_in_dquotes_create_case0019_'''_5";
+drop server "ser_ignore_case_in_dquotes_create_case0019_""""""_6";
+drop server "ser_ignore_case_in_dquotes_create_case0019_''""_7";
+drop server ser_ignore_case_in_dquotes_create_case0019_8;
+drop foreign data wrapper ignore_case_dbserver0019 cascade;
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试创建外部数据包装器，外部数据包装器名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--step1:创建外部数据包装器名为全小写;expect:成功
+create foreign data wrapper "fdw_ignore_case_in_dquotes_create_case0021_1"; 
+--step2:创建外部数据包装器名为全大写;expect:成功
+create foreign data wrapper "FDW_IGNORE_CASE_IN_DQUOTES_CREATE_CASE0021_2";
+--step3:创建外部数据包装器名为大小写混合;expect:成功
+create foreign data wrapper "fdw_IgNOrE_CasE_IN_dquotes_create_cASe0021_3";
+--step4:创建外部数据包装器名带有特殊符号;expect:成功
+create foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_create_CASE0021_!@#$%^&amp;*()?&lt;&gt;:;=+-_4";
+--step5:创建外部数据包装器名带有单引号;expect:成功
+create foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_create_CASE0021_'''_5";
+--step6:创建外部数据包装器名带有双引号;expect:成功
+create foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_create_CASE0021_""""""_6";
+--step7:创建外部数据包装器名带有单引号、双引号混合;expect:成功
+create foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_create_case0021_''""_7";
+--step8:异常情况，创建已经存在的小写对象名的对象;expect:报错ERROR: already exists
+create foreign data wrapper fdw_ignore_case_in_dquotes_create_case0021_8;
+create foreign data wrapper "FDW_IGNORE_CASE_IN_DQUOTES_CREATE_CASE0021_8";
+--step9:清理环境:expect:成功(8 row)
+drop foreign data wrapper fdw_ignore_case_in_dquotes_create_case0021_1;
+drop foreign data wrapper fdw_ignore_case_in_dquotes_create_case0021_2;
+drop foreign data wrapper fdw_ignore_case_in_dquotes_create_case0021_3;
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_create_case0021_!@#$%^&amp;*()?&lt;&gt;:;=+-_4";
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_create_case0021_'''_5";
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_create_case0021_""""""_6";
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_create_case0021_''""_7";
+drop foreign data wrapper fdw_ignore_case_in_dquotes_create_case0021_8;
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试删除外表，名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--创建服务器及外表;expect:成功(11 rows)
+create foreign data wrapper ignore_case_dbserver0022 options (debug 'true');
+create server ser_ignore_case_in_dquotes_drop_case0022 foreign data wrapper ignore_case_dbserver0022;
+grant usage on foreign server ser_ignore_case_in_dquotes_drop_case0022 to public;
+create foreign table ft_ignore_case_in_dquotes_drop_case0022_1("IGNORE_CASE_IN_DQUOTES_DROP_col1" int,"IGNORE_CASE_IN_DQUOTES_DROP_col2" varchar(10)) server ser_ignore_case_in_dquotes_drop_case0022;
+create foreign table ft_ignore_case_in_dquotes_drop_case0022_2("IGNORE_CASE_IN_DQUOTES_DROP_col1" int,"IGNORE_CASE_IN_DQUOTES_DROP_col2" varchar(10)) server ser_ignore_case_in_dquotes_drop_case0022;
+create foreign table ft_ignore_case_in_dquotes_drop_case0022_3("IGNORE_CASE_IN_DQUOTES_DROP_col1" int,"IGNORE_CASE_IN_DQUOTES_DROP_col2" varchar(10)) server ser_ignore_case_in_dquotes_drop_case0022;
+create foreign table "ft_ignore_case_in_dquotes_drop_case0022_!@#$%^&amp;*()?&lt;&gt;:;=+-_4"("IGNORE_CASE_IN_DQUOTES_DROP_col1" int,"IGNORE_CASE_IN_DQUOTES_DROP_col2" varchar(10)) server ser_ignore_case_in_dquotes_drop_case0022;
+create foreign table "ft_ignore_case_in_dquotes_drop_case0022_'''_5"("IGNORE_CASE_IN_DQUOTES_DROP_col1" int,"IGNORE_CASE_IN_DQUOTES_DROP_col2" varchar(10)) server ser_ignore_case_in_dquotes_drop_case0022;
+create foreign table "ft_ignore_case_in_dquotes_drop_case0022_""""""_6"("IGNORE_CASE_IN_DQUOTES_DROP_col1" int,"IGNORE_CASE_IN_DQUOTES_DROP_col2" varchar(10)) server ser_ignore_case_in_dquotes_drop_case0022;
+create foreign table "ft_ignore_case_in_dquotes_drop_case0022_''""_7"("IGNORE_CASE_IN_DQUOTES_DROP_col1" int,"IGNORE_CASE_IN_DQUOTES_DROP_col2" varchar(10)) server ser_ignore_case_in_dquotes_drop_case0022;
+create foreign table ft_ignore_case_in_dquotes_drop_case0022_8("IGNORE_CASE_IN_DQUOTES_DROP_col1" int,"IGNORE_CASE_IN_DQUOTES_DROP_col2" varchar(10)) server ser_ignore_case_in_dquotes_drop_case0022;
+--step1:删除外表名为全小写;expect:成功
+drop foreign table "ft_ignore_case_in_dquotes_drop_case0022_1"; 
+--step2:删除外表名为全大写;expect:成功
+drop foreign table "FT_IGNORE_CASE_IN_DQUOTES_DROP_CASE0022_2"; 
+--step3:删除外表名为大小写混合;expect:成功
+drop foreign table "Ft_IgNOrE_CasE_IN_dquotes_drop_cASe0022_3"; 
+--step4:删除外表名带有特殊符号;expect:成功
+drop foreign table "ft_IGNORE_CASE_IN_dquotes_drop_CASE0022_!@#$%^&amp;*()?&lt;&gt;:;=+-_4"; 
+--step5:删除外表名带有单引号;expect:成功
+drop foreign table "ft_IGNORE_CASE_IN_dquotes_drop_CASE0022_'''_5"; 
+--step6:删除外表名带有双引号;expect:成功
+drop foreign table "ft_IGNORE_CASE_IN_dquotes_drop_CASE0022_""""""_6"; 
+--step7:删除外表名带有单引号、双引号混合;expect:成功
+drop foreign table "FT_IGNORE_CASE_IN_dquotes_drop_case0022_''""_7"; 
+--step8:异常情况，删除不存在的小写对象名的对象;expect:报错ERROR: does not exists
+drop foreign table ft_ignore_case_in_dquotes_drop_case0022_8; 
+drop foreign table "FT_IGNORE_CASE_IN_DQUOTES_DROP_CASE0022_8"; 
+--清理环境:expect:成功(2 rows)
+drop server ser_ignore_case_in_dquotes_drop_case0022;
+drop foreign data wrapper ignore_case_dbserver0022 cascade;
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试删除服务器，名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--创建服务器;expect:成功(9 rows)
+create foreign data wrapper ignore_case_dbserver0023 options (debug 'true');
+create server ser_ignore_case_in_dquotes_drop_case0023_1 foreign data wrapper ignore_case_dbserver0023;
+create server ser_ignore_case_in_dquotes_drop_case0023_2 foreign data wrapper ignore_case_dbserver0023;
+create server ser_ignore_case_in_dquotes_drop_case0023_3 foreign data wrapper ignore_case_dbserver0023;
+create server "ser_ignore_case_in_dquotes_drop_case0023_!@#$%^&amp;*()?&lt;&gt;:;=+-_4" foreign data wrapper ignore_case_dbserver0023;
+create server "ser_ignore_case_in_dquotes_drop_case0023_'''_5" foreign data wrapper ignore_case_dbserver0023;
+create server "ser_ignore_case_in_dquotes_drop_case0023_""""""_6" foreign data wrapper ignore_case_dbserver0023;
+create server "ser_ignore_case_in_dquotes_drop_case0023_''""_7" foreign data wrapper ignore_case_dbserver0023;
+create server ser_ignore_case_in_dquotes_drop_case0023_8 foreign data wrapper ignore_case_dbserver0023;
+--step1:删除服务器名为全小写;expect:成功
+drop server "ser_ignore_case_in_dquotes_drop_case0023_1"; 
+--step2:删除服务器名为全大写;expect:成功
+drop server "SER_IGNORE_CASE_IN_DQUOTES_DROP_CASE0023_2"; 
+--step3:删除服务器名为大小写混合;expect:成功
+drop server "Ser_IgNOrE_CasE_IN_dquotes_drop_cASe0023_3"; 
+--step4:删除服务器名带有特殊符号;expect:成功
+drop server "ser_IGNORE_CASE_IN_dquotes_drop_CASE0023_!@#$%^&amp;*()?&lt;&gt;:;=+-_4"; 
+--step5:删除服务器名带有单引号;expect:成功
+drop server "ser_IGNORE_CASE_IN_dquotes_drop_CASE0023_'''_5"; 
+--step6:删除服务器名带有双引号;expect:成功
+drop server "ser_IGNORE_CASE_IN_dquotes_drop_CASE0023_""""""_6"; 
+--step7:删除服务器名带有单引号、双引号混合;expect:成功
+drop server "SER_IGNORE_CASE_IN_dquotes_drop_case0023_''""_7"; 
+--step8:异常情况，删除不存在的小写对象名的对象;expect:报错ERROR: does not exists
+drop server ser_ignore_case_in_dquotes_drop_case0023_8; 
+drop server "SER_IGNORE_CASE_IN_DQUOTES_DROP_CASE0023_8"; 
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试删除外部数据包装器，外部数据包装器名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+set enable_ignore_case_in_dquotes to on;
+--创建外部数据包装器:expect:成功(8 row)
+create foreign data wrapper fdw_ignore_case_in_dquotes_drop_case0024_1;
+create foreign data wrapper fdw_ignore_case_in_dquotes_drop_case0024_2;
+create foreign data wrapper fdw_ignore_case_in_dquotes_drop_case0024_3;
+create foreign data "wrapper fdw_ignore_case_in_dquotes_drop_case0024_!@#$%^&amp;*()?&lt;&gt;:;=+-_4";
+create foreign data wrapper "fdw_ignore_case_in_dquotes_drop_case0024_'''_5";
+create foreign data wrapper "fdw_ignore_case_in_dquotes_drop_case0024_""""""_6";
+create foreign data wrapper "fdw_ignore_case_in_dquotes_drop_case0024_''""_7";
+create foreign data wrapper fdw_ignore_case_in_dquotes_drop_case0024_8;
+--step1:删除外部数据包装器名为全小写;expect:成功
+drop foreign data wrapper "fdw_ignore_case_in_dquotes_drop_case0024_1"; 
+--step2:删除外部数据包装器名为全大写;expect:成功
+drop foreign data wrapper "FDW_IGNORE_CASE_IN_DQUOTES_DROP_CASE0024_2";
+--step3:删除外部数据包装器名为大小写混合;expect:成功
+drop foreign data wrapper "fdw_IgNOrE_CasE_IN_dquotes_drop_cASe0024_3";
+--step4:删除外部数据包装器名带有特殊符号;expect:成功
+drop foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_drop_CASE0024_!@#$%^&amp;*()?&lt;&gt;:;=+-_4";
+--step5:删除外部数据包装器名带有单引号;expect:成功
+drop foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_drop_CASE0024_'''_5";
+--step6:删除外部数据包装器名带有双引号;expect:成功
+drop foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_drop_CASE0024_""""""_6";
+--step7:删除外部数据包装器名带有单引号、双引号混合;expect:成功
+drop foreign data wrapper "fdw_IGNORE_CASE_IN_dquotes_drop_case0024_''""_7";
+--step8:异常情况，删除不存在的小写对象名的对象;expect:报错ERROR: does not exists
+drop foreign data wrapper fdw_ignore_case_in_dquotes_drop_case0024_8;
+drop foreign data wrapper "FDW_IGNORE_CASE_IN_DQUOTES_DROP_CASE0024_8";
+--关闭参数
+set enable_ignore_case_in_dquotes to off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.开启参数，其他session创建数据，合理报错
+-- @date:2024-03-20
+-- @默认参数为off
+--session1,开启参数;expect:成功
+set enable_ignore_case_in_dquotes to on;
+--session2,查询参数;expect:参数为off状态
+show enable_ignore_case_in_dquotes;
+--session2,创建表;expect:不受session1参数影响
+--创建小写表名(默认不加双引号也转换成小写)
+create table T_IGNORE_CASE_IN_DQUOTES_PARAM_CASE0007_1(COL1 int, COL2 varchar(10));
+--创建大写表名(默认添加双引号大小写敏感)
+create table "T_IGNORE_CASE_IN_DQUOTES_PARAM_case0007_2"("Col1" int, "Col2" varchar(10));
+--session2,插入数据,表名列名都符合大小写规则;expect:成功
+insert into T_IGNORE_CASE_IN_DQUOTES_PARAM_CASE0007_1(COL1,COL2) values(1,'one');
+insert into "T_IGNORE_CASE_IN_DQUOTES_PARAM_case0007_2"("Col1","Col2") values(1,'one');
+--session2,插入数据,表名称不符合大小写规则;expect:ERROR:  relation "t_ignore_case_in_dquotes_param_case0007_2" does not exist
+insert into "t_ignore_case_in_dquotes_param_case0007_2"(col1,col2) values(1,'one');
+--session2,插入数据,列名称不符合大小写规则;expect:ERROR:  column "col1" of relation "T_IGNORE_CASE_IN_DQUOTES_PARAM_case0007_2" does not exist
+insert into "T_IGNORE_CASE_IN_DQUOTES_PARAM_case0007_2"(col1,col2) values(1,'one');
+--session1,插入数据,转换成全小写;expect:成功
+insert into T_IGNORE_CASE_IN_DQUOTES_PARAM_CASE0007_1(COL1,COL2) values(1,'one');
+--session1,插入数据,转换成全小写;expect:ERROR:  relation "t_ignore_case_in_dquotes_param_case0007_2" does not exist
+insert into "T_IGNORE_CASE_IN_DQUOTES_PARAM_case0007_2"("Col1","Col2") values(1,'one');
+--session2,清理环境;expect:删除表成功
+drop table T_IGNORE_CASE_IN_DQUOTES_PARAM_CASE0007_1;
+drop table "T_IGNORE_CASE_IN_DQUOTES_PARAM_case0007_2";
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试使用外表，名称大小写不敏感，合理报错
+-- @date:2023-12-26
+-- @需要开启support_extended_features参数
+--开启参数
+@set enable_ignore_case_in_dquotes=on;
+--使用服务器;expect:成功
+create foreign data wrapper ignore_case_dbserver0028 options (debug 'true');
+create server ser_ignore_case_in_dquotes_use_case0028 foreign data wrapper ignore_case_dbserver0028;
+grant usage on foreign server ser_ignore_case_in_dquotes_use_case0028 to public;
+--使用外表
+use foreign table "ft_ignore_case_in_dquotes_use_case0028"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step1:使用外表名为全小写;expect:成功
+use foreign table "ft_ignore_case_in_dquotes_use_case0028_1"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step2:使用外表名为全大写;expect:成功
+use foreign table "FT_IGNORE_CASE_IN_DQUOTES_USE_CASE0028_2"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step3:使用外表名为大小写混合;expect:成功
+use foreign table "Ft_IgNOrE_CasE_IN_dquotes_use_cASe0028_3"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step4:使用外表名带有特殊符号;expect:成功
+use foreign table "ft_IGNORE_CASE_IN_dquotes_use_CASE0028_!@#$%^&amp;*()?&lt;&gt;:;=+-_4"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step5:使用外表名带有单引号;expect:成功
+use foreign table "ft_IGNORE_CASE_IN_dquotes_use_CASE0028_'''_5"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step6:使用外表名带有双引号;expect:成功
+use foreign table "ft_IGNORE_CASE_IN_dquotes_use_CASE0028_""""""_6"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step7:使用外表名带有单引号、双引号混合;expect:成功
+use foreign table "FT_IGNORE_CASE_IN_dquotes_use_case0028_''""_7"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step8:异常情况，使用已经存在的小写对象名的对象;expect:报错ERROR: already exists
+use foreign table ft_ignore_case_in_dquotes_use_case0028_8("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+use foreign table "FT_IGNORE_CASE_IN_DQUOTES_USE_CASE0028_8"("IGNORE_CASE_IN_DQUOTES_USE_col1" int,"IGNORE_CASE_IN_DQUOTES_USE_col2" varchar(10)) server ser_ignore_case_in_dquotes_use_case0028; 
+--step9:清理环境:expect:成功(8 row)
+drop foreign table ft_ignore_case_in_dquotes_use_case0028_1;
+drop foreign table ft_ignore_case_in_dquotes_use_case0028_2;
+drop foreign table ft_ignore_case_in_dquotes_use_case0028_3;
+drop foreign table "ft_ignore_case_in_dquotes_use_case0028_!@#$%^&amp;*()?&lt;&gt;:;=+-_4";
+drop foreign table "ft_ignore_case_in_dquotes_use_case0028_'''_5";
+drop foreign table "ft_ignore_case_in_dquotes_use_case0028_""""""_6";
+drop foreign table "ft_ignore_case_in_dquotes_use_case0028_''""_7";
+drop foreign table ft_ignore_case_in_dquotes_use_case0028_8;
+drop server ser_ignore_case_in_dquotes_use_case0028;
+drop foreign data wrapper ignore_case_dbserver0028 cascade;
+--关闭参数
+@set enable_ignore_case_in_dquotes=off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.测试copy表到文件，表名称大小写不敏感，合理报错
+-- @date:2024-3-12
+-- @history:
+--开启参数
+@set enable_ignore_case_in_dquotes to on;
+--创建表并插入数据;expect:成功(10 rows)
+create table t_ignore_case_in_dquotes_use_case0029(col1 int,col2 varchar(10)); 
+insert into t_ignore_case_in_dquotes_use_case0029 values(1,'one'),(2,'two'),(3,'three');
+create table "t_ignore_case_in_dquotes_use_case0029!@#$%^&amp;*()?&lt;&gt;:;=+-"(col1 int,col2 varchar(10)); 
+insert into "t_ignore_case_in_dquotes_use_case0029!@#$%^&amp;*()?&lt;&gt;:;=+-" values(1,'one'),(2,'two'),(3,'three');
+create table "t_ignore_case_in_dquotes_use_case0029'''"(col1 int,col2 varchar(10)); 
+insert into "t_ignore_case_in_dquotes_use_case0029'''" values(1,'one'),(2,'two'),(3,'three');
+create table "t_ignore_case_in_dquotes_use_case0029"""""""(col1 int,col2 varchar(10)); 
+insert into "t_ignore_case_in_dquotes_use_case0029""""""" values(1,'one'),(2,'two'),(3,'three');
+create table "t_ignore_case_in_dquotes_use_case0029''"""(col1 int,col2 varchar(10)); 
+insert into "t_ignore_case_in_dquotes_use_case0029''""" values(1,'one'),(2,'two'),(3,'three');
+--step1:使用表名为全小写;expect:成功
+copy "t_ignore_case_in_dquotes_use_case0029" to '/home/omm/t_ignore_case_in_dquotes_use_case0029_1.dat';
+--step2:使用表名为全大写;expect:成功
+copy "T_IGNORE_CASE_IN_DQUOTES_USE_CASE0029" to '/home/omm/t_ignore_case_in_dquotes_use_case0029_2.dat';
+--step3:使用表名为大小写混合;expect:成功
+copy "T_IGNORE_case_in_dquotes_use_case0029" to '/home/omm/t_ignore_case_in_dquotes_use_case0029_3.dat';
+--step4:使用表名带有特殊符号;expect:成功
+copy "T_IGNORE_case_in_dquotes_use_case0029!@#$%^&amp;*()?&lt;&gt;:;=+-" to '/home/omm/t_ignore_case_in_dquotes_use_case0029_4.dat';
+--step5:使用表名带有单引号;expect:成功
+copy "T_IGNORE_case_in_dquotes_use_case0029'''" to '/home/omm/t_ignore_case_in_dquotes_use_case0029_5.dat';
+--step6:使用表名带有双引号;expect:成功
+copy "T_IGNORE_case_in_dquotes_use_case0029""""""" to '/home/omm/t_ignore_case_in_dquotes_use_case0029_6.dat';
+--step7:使用表名带有单引号、双引号混合;expect:成功
+copy "T_IGNORE_case_in_dquotes_use_case0029''""" to '/home/omm/t_ignore_case_in_dquotes_use_case0029_7.dat';
+--清理环境:expect:成功(5 rows)
+drop table t_ignore_case_in_dquotes_use_case0029;
+drop table "t_ignore_case_in_dquotes_use_case0029!@#$%^&amp;*()?&lt;&gt;:;=+-";
+drop table "t_ignore_case_in_dquotes_use_case0029'''";
+drop table "t_ignore_case_in_dquotes_use_case0029""""""";
+drop table "t_ignore_case_in_dquotes_use_case0029''""";
+--关闭参数
+@set enable_ignore_case_in_dquotes=off;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1）手动执行对应用例
+-- @testpoint:1.修改指定数据库、用户、会话级别的参数，合理报错
+-- @date:2024-3-12
+-- @omm用户权限：Sysadmin, Create role, Create DB, Replication, Administer audit, Monitoradmin, Operatoradmin, Policyadmin, UseFT
+--step1:alter database方式修改参数，下次会话中生效(参数默认值为off)
+gsql -U omm -d postgres -W szoscar55! -r
+--参数默认值为off
+show enable_ignore_case_in_dquotes;
+alter database postgres set enable_ignore_case_in_dquotes to on;
+--值仍为off，本次会话中不生效
+show enable_ignore_case_in_dquotes;
+\c
+--值为on，重新连接后，生效
+show enable_ignore_case_in_dquotes;
+--连接其他数据库，再连接回修改参数的数据库
+\c dbtest
+\c postgres
+--值为on，依然生效
+show enable_ignore_case_in_dquotes;
+--重开一个gsql窗口，查询参数，依然生效
+gsql -U omm -d postgres -W szoscar55! -r
+show enable_ignore_case_in_dquotes;
+--重置参数
+alter database postgres set enable_ignore_case_in_dquotes to off;
+--step2:alter user方式修改参数，下次会话中生效(参数默认值为off)
+gsql -U omm -d postgres -W szoscar55! -r
+--session1，创建普通用户u1
+create user u1 with password 'szoscar55!';
+--session2，普通用户u1登录，查询参数默认值为off
+gsql -U u1 -d postgres -W szoscar55! -r
+show enable_ignore_case_in_dquotes;
+--session1，管理员omm用户修改普通用户的参数值
+alter user u1 set enable_ignore_case_in_dquotes to on;
+--session2，值仍为off，本次会话中不生效
+show enable_ignore_case_in_dquotes;
+\c
+--session2，值为on，重新连接后，生效
+show enable_ignore_case_in_dquotes;
+--session2，连接其他用户，再连接回修改参数的数据库
+\c - omm
+\c - u1
+--session2，值为on，依然生效
+show enable_ignore_case_in_dquotes;
+--session3，重开一个gsql窗口，查询参数，依然生效
+gsql -U u1 -d postgres -W szoscar55! -r
+show enable_ignore_case_in_dquotes;
+--session1，重置参数，清理环境
+alter user u1 set enable_ignore_case_in_dquotes to off;
+drop user u1 cascade;
+--step3，普通用户修改其他用户参数
+gsql -U omm -d postgres -W szoscar55! -r
+--创建普通用户u1
+create user u1 with password 'szoscar55!';
+\q
+--普通用户u1登录
+gsql -U u1 -d postgres -W szoscar55! -r
+--修改管理员用户omm的参数;expect:报错,ERROR:  Permission denied.
+alter user omm set enable_ignore_case_in_dquotes to on;
+--修改自己的参数，下次会话中生效
+alter user u1 set enable_ignore_case_in_dquotes to on;
+\c - u1
+show enable_ignore_case_in_dquotes;
+alter user u1 set enable_ignore_case_in_dquotes to off;
+\c
+show enable_ignore_case_in_dquotes;
+--重置参数，清理环境
+gsql -U omm -d postgres -W szoscar55! -r
+alter user u1 set enable_ignore_case_in_dquotes to off;
+drop user u1 cascade;
+--step4:set参数，修改本次会话中的取值。退出会话后，设置将失效。其他会话不生效
+gsql -U omm -d postgres -W szoscar55! -r
+--session1，参数默认值为off
+show enable_ignore_case_in_dquotes;
+set enable_ignore_case_in_dquotes to on;
+--session1，本次会话中生效，参数值为on
+show enable_ignore_case_in_dquotes;
+--session2，重开一个gsql窗口，查询参数，不生效，参数值为off
+gsql -U omm -d postgres -W szoscar55! -r
+show enable_ignore_case_in_dquotes;
+--session1，重新连接后，失效，参数值为off
+\c
+show enable_ignore_case_in_dquotes;
+--session1，设置并重置参数,重置为默认值off
+set enable_ignore_case_in_dquotes to on;
+show enable_ignore_case_in_dquotes;
+reset enable_ignore_case_in_dquotes;
+show enable_ignore_case_in_dquotes;
+set enable_ignore_case_in_dquotes to on;
+show enable_ignore_case_in_dquotes;
+set enable_ignore_case_in_dquotes to default;
+show enable_ignore_case_in_dquotes;
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1619,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1635,7 +2232,7 @@
     <col min="8" max="8" width="25.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="76.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
@@ -1643,7 +2240,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1679,12 +2276,12 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -1725,16 +2322,16 @@
     </row>
     <row r="3" spans="1:13" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -1752,7 +2349,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>25</v>
@@ -1769,7 +2366,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
@@ -1787,7 +2384,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>25</v>
@@ -1804,7 +2401,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -1822,7 +2419,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>25</v>
@@ -1839,7 +2436,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -1857,7 +2454,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>25</v>
@@ -1874,7 +2471,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
@@ -1892,7 +2489,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>25</v>
@@ -1909,7 +2506,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -1927,7 +2524,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>25</v>
@@ -1944,7 +2541,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>37</v>
@@ -1962,7 +2559,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>25</v>
@@ -1979,7 +2576,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>38</v>
@@ -1997,10 +2594,10 @@
         <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>26</v>
@@ -2014,7 +2611,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>39</v>
@@ -2032,10 +2629,10 @@
         <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>26</v>
@@ -2049,7 +2646,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>40</v>
@@ -2067,10 +2664,10 @@
         <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>26</v>
@@ -2084,7 +2681,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>41</v>
@@ -2102,10 +2699,10 @@
         <v>23</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>26</v>
@@ -2119,7 +2716,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>42</v>
@@ -2137,10 +2734,10 @@
         <v>23</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>26</v>
@@ -2154,10 +2751,10 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -2172,10 +2769,10 @@
         <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>26</v>
@@ -2189,7 +2786,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>43</v>
@@ -2207,10 +2804,10 @@
         <v>23</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>26</v>
@@ -2224,10 +2821,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>22</v>
@@ -2242,10 +2839,10 @@
         <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>26</v>
@@ -2259,7 +2856,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>44</v>
@@ -2277,13 +2874,13 @@
         <v>23</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>24</v>
@@ -2294,7 +2891,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>45</v>
@@ -2312,13 +2909,13 @@
         <v>23</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>24</v>
@@ -2329,7 +2926,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>46</v>
@@ -2347,13 +2944,13 @@
         <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>24</v>
@@ -2364,7 +2961,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>47</v>
@@ -2382,13 +2979,13 @@
         <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>24</v>
@@ -2399,7 +2996,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
@@ -2417,10 +3014,10 @@
         <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>26</v>
@@ -2434,7 +3031,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>49</v>
@@ -2452,10 +3049,10 @@
         <v>23</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>26</v>
@@ -2469,7 +3066,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>50</v>
@@ -2487,10 +3084,10 @@
         <v>23</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>26</v>
@@ -2499,12 +3096,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="408.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>51</v>
@@ -2522,24 +3119,24 @@
         <v>23</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>52</v>
@@ -2557,24 +3154,24 @@
         <v>23</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>53</v>
@@ -2592,13 +3189,13 @@
         <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>24</v>
@@ -2609,7 +3206,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>54</v>
@@ -2627,10 +3224,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>26</v>
@@ -2644,7 +3241,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>55</v>
@@ -2662,10 +3259,10 @@
         <v>23</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>26</v>
@@ -2679,7 +3276,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>56</v>
@@ -2697,10 +3294,10 @@
         <v>23</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>26</v>
@@ -2714,7 +3311,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>57</v>
@@ -2732,10 +3329,10 @@
         <v>23</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>26</v>
@@ -2749,7 +3346,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>58</v>
@@ -2767,10 +3364,10 @@
         <v>23</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>26</v>
@@ -2784,7 +3381,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>59</v>
@@ -2802,10 +3399,10 @@
         <v>23</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>26</v>
@@ -2819,7 +3416,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>60</v>
@@ -2837,10 +3434,10 @@
         <v>23</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>26</v>
@@ -2854,7 +3451,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>61</v>
@@ -2872,10 +3469,10 @@
         <v>23</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>26</v>
@@ -2889,7 +3486,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>62</v>
@@ -2907,10 +3504,10 @@
         <v>23</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>26</v>
@@ -2924,7 +3521,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>63</v>
@@ -2942,10 +3539,10 @@
         <v>23</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>26</v>
@@ -2959,7 +3556,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>64</v>
@@ -2977,10 +3574,10 @@
         <v>23</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>26</v>
@@ -2994,7 +3591,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>65</v>
@@ -3012,10 +3609,10 @@
         <v>23</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>26</v>
@@ -3029,7 +3626,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>66</v>
@@ -3047,10 +3644,10 @@
         <v>23</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>26</v>
@@ -3064,7 +3661,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>67</v>
@@ -3082,7 +3679,7 @@
         <v>23</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>25</v>
@@ -3099,7 +3696,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>68</v>
@@ -3117,7 +3714,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>25</v>
@@ -3134,7 +3731,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>69</v>
@@ -3152,7 +3749,7 @@
         <v>23</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>25</v>
@@ -3169,7 +3766,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>70</v>
@@ -3187,7 +3784,7 @@
         <v>23</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>25</v>
@@ -3204,7 +3801,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>71</v>
@@ -3222,7 +3819,7 @@
         <v>23</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>25</v>
@@ -3239,7 +3836,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>72</v>
@@ -3257,7 +3854,7 @@
         <v>23</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>25</v>
@@ -3274,7 +3871,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>73</v>
@@ -3292,7 +3889,7 @@
         <v>23</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>25</v>
@@ -3309,7 +3906,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>74</v>
@@ -3327,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>25</v>
@@ -3339,12 +3936,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>75</v>
@@ -3362,24 +3959,24 @@
         <v>23</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M49" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>76</v>
@@ -3397,24 +3994,24 @@
         <v>23</v>
       </c>
       <c r="J50" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="M50" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>77</v>
@@ -3432,13 +4029,13 @@
         <v>23</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>24</v>
@@ -3449,7 +4046,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>78</v>
@@ -3467,7 +4064,7 @@
         <v>23</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>25</v>
@@ -3484,7 +4081,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>79</v>
@@ -3502,7 +4099,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>25</v>
@@ -3519,7 +4116,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>80</v>
@@ -3537,7 +4134,7 @@
         <v>23</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>25</v>
@@ -3554,7 +4151,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>81</v>
@@ -3572,7 +4169,7 @@
         <v>23</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>25</v>
@@ -3589,7 +4186,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>82</v>
@@ -3607,7 +4204,7 @@
         <v>23</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>25</v>
@@ -3624,7 +4221,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>83</v>
@@ -3642,7 +4239,7 @@
         <v>23</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>25</v>
@@ -3659,7 +4256,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>84</v>
@@ -3677,7 +4274,7 @@
         <v>23</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>25</v>
@@ -3694,7 +4291,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>85</v>
@@ -3712,7 +4309,7 @@
         <v>23</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>25</v>
@@ -3729,7 +4326,7 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>86</v>
@@ -3747,7 +4344,7 @@
         <v>23</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>25</v>
@@ -3764,7 +4361,7 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>87</v>
@@ -3782,7 +4379,7 @@
         <v>23</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>25</v>
@@ -3799,7 +4396,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>88</v>
@@ -3817,7 +4414,7 @@
         <v>23</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>25</v>
@@ -3834,7 +4431,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>89</v>
@@ -3852,7 +4449,7 @@
         <v>23</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>25</v>
@@ -3869,7 +4466,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>90</v>
@@ -3887,7 +4484,7 @@
         <v>23</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>25</v>
@@ -3904,7 +4501,7 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>91</v>
@@ -3922,7 +4519,7 @@
         <v>23</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>25</v>
@@ -3939,7 +4536,7 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>92</v>
@@ -3957,7 +4554,7 @@
         <v>23</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>25</v>
@@ -3974,7 +4571,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>93</v>
@@ -3992,7 +4589,7 @@
         <v>23</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>25</v>
@@ -4009,7 +4606,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>94</v>
@@ -4027,7 +4624,7 @@
         <v>23</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>25</v>
@@ -4044,7 +4641,7 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>95</v>
@@ -4062,7 +4659,7 @@
         <v>23</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>25</v>
@@ -4079,7 +4676,7 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>96</v>
@@ -4097,7 +4694,7 @@
         <v>23</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>25</v>
@@ -4114,7 +4711,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>97</v>
@@ -4132,7 +4729,7 @@
         <v>23</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>25</v>
@@ -4149,7 +4746,7 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>98</v>
@@ -4167,7 +4764,7 @@
         <v>23</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>25</v>
@@ -4179,12 +4776,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>99</v>
@@ -4202,24 +4799,24 @@
         <v>23</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K73" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M73" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>100</v>
@@ -4237,24 +4834,24 @@
         <v>23</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M74" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>101</v>
@@ -4272,13 +4869,13 @@
         <v>23</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>24</v>
@@ -4289,10 +4886,10 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>22</v>
@@ -4307,7 +4904,7 @@
         <v>23</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>25</v>
@@ -4317,12 +4914,12 @@
       </c>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>102</v>
@@ -4340,13 +4937,13 @@
         <v>23</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K77" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>24</v>
@@ -4357,7 +4954,7 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>103</v>
@@ -4375,7 +4972,7 @@
         <v>28</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>25</v>
@@ -4392,7 +4989,7 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>104</v>
@@ -4410,7 +5007,7 @@
         <v>28</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>25</v>
@@ -4427,7 +5024,7 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>105</v>
@@ -4445,7 +5042,7 @@
         <v>30</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>25</v>
@@ -4462,7 +5059,7 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>106</v>
@@ -4480,7 +5077,7 @@
         <v>30</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>25</v>
@@ -4497,7 +5094,7 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>107</v>
@@ -4515,7 +5112,7 @@
         <v>30</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>25</v>
@@ -4532,7 +5129,7 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>108</v>
@@ -4550,7 +5147,7 @@
         <v>30</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>25</v>
@@ -4562,13 +5159,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>29</v>
@@ -4583,13 +5180,13 @@
         <v>30</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K84" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>24</v>
@@ -4600,7 +5197,7 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>109</v>
@@ -4618,7 +5215,7 @@
         <v>30</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>25</v>
@@ -4635,7 +5232,7 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>110</v>
@@ -4653,7 +5250,7 @@
         <v>30</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>25</v>
@@ -4670,7 +5267,7 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>111</v>
@@ -4688,7 +5285,7 @@
         <v>30</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>25</v>
@@ -4705,7 +5302,7 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>112</v>
@@ -4723,7 +5320,7 @@
         <v>30</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>25</v>
@@ -4740,7 +5337,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>113</v>
@@ -4758,7 +5355,7 @@
         <v>30</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>25</v>
@@ -4775,7 +5372,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>114</v>
@@ -4793,7 +5390,7 @@
         <v>30</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>25</v>
@@ -4810,7 +5407,7 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>115</v>
@@ -4828,7 +5425,7 @@
         <v>28</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>25</v>
@@ -4845,7 +5442,7 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>116</v>
@@ -4863,7 +5460,7 @@
         <v>28</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>25</v>
@@ -4880,7 +5477,7 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>117</v>
@@ -4898,7 +5495,7 @@
         <v>28</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>25</v>
@@ -4915,10 +5512,10 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>29</v>
@@ -4933,7 +5530,7 @@
         <v>28</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>25</v>
@@ -4950,7 +5547,7 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>118</v>
@@ -4968,7 +5565,7 @@
         <v>28</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>25</v>
@@ -4985,7 +5582,7 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>119</v>
@@ -5003,7 +5600,7 @@
         <v>28</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>25</v>
@@ -5020,7 +5617,7 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>120</v>
@@ -5038,7 +5635,7 @@
         <v>28</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>25</v>
@@ -5055,7 +5652,7 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>121</v>
@@ -5073,7 +5670,7 @@
         <v>28</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>25</v>
@@ -5090,10 +5687,10 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>29</v>
@@ -5108,7 +5705,7 @@
         <v>28</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>25</v>
@@ -5125,7 +5722,7 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>122</v>
@@ -5143,7 +5740,7 @@
         <v>23</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>25</v>
@@ -5160,7 +5757,7 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>123</v>
@@ -5178,7 +5775,7 @@
         <v>23</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>25</v>
@@ -5195,7 +5792,7 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>124</v>
@@ -5213,7 +5810,7 @@
         <v>28</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>25</v>
@@ -5230,7 +5827,7 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>125</v>
@@ -5248,7 +5845,7 @@
         <v>28</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>25</v>
@@ -5265,7 +5862,7 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>126</v>
@@ -5283,7 +5880,7 @@
         <v>28</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>25</v>
@@ -5300,10 +5897,10 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>29</v>
@@ -5318,7 +5915,7 @@
         <v>28</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>25</v>
@@ -5335,7 +5932,7 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>127</v>
@@ -5353,7 +5950,7 @@
         <v>28</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>25</v>
@@ -5370,7 +5967,7 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>128</v>
@@ -5388,7 +5985,7 @@
         <v>23</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>25</v>
@@ -5405,7 +6002,7 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>129</v>
@@ -5423,7 +6020,7 @@
         <v>23</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>25</v>
@@ -5440,10 +6037,10 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>29</v>
@@ -5458,7 +6055,7 @@
         <v>23</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>25</v>
@@ -5475,7 +6072,7 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>130</v>
@@ -5493,7 +6090,7 @@
         <v>23</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>25</v>
@@ -5510,10 +6107,10 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>29</v>
@@ -5528,7 +6125,7 @@
         <v>23</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>25</v>
@@ -5540,15 +6137,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>22</v>
@@ -5563,27 +6160,27 @@
         <v>23</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K112" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L112" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L112" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M112" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>22</v>
@@ -5598,13 +6195,13 @@
         <v>23</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K113" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>24</v>
@@ -5615,10 +6212,10 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>29</v>
@@ -5633,7 +6230,7 @@
         <v>23</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>25</v>
@@ -5650,10 +6247,10 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>29</v>
@@ -5668,7 +6265,7 @@
         <v>23</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>25</v>
@@ -5685,10 +6282,10 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>29</v>
@@ -5703,7 +6300,7 @@
         <v>23</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>25</v>
@@ -5720,10 +6317,10 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>29</v>
@@ -5738,7 +6335,7 @@
         <v>23</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>25</v>
@@ -5755,10 +6352,10 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>29</v>
@@ -5773,7 +6370,7 @@
         <v>23</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>25</v>
@@ -5790,10 +6387,10 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>29</v>
@@ -5808,7 +6405,7 @@
         <v>23</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>25</v>
@@ -5825,10 +6422,10 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>29</v>
@@ -5843,7 +6440,7 @@
         <v>23</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>25</v>
